--- a/doc/wifi-app15.4.6.xlsx
+++ b/doc/wifi-app15.4.6.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
   <si>
     <t>Byte</t>
   </si>
@@ -2014,6 +2014,78 @@
       </rPr>
       <t>（初始通过手机配置，最终由服务器修改以便存储到数据库）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要说明：无论是内网还是外网，上位机（APP或者服务器）都需要定时给新风机发送心跳报，（心跳报数据格式=正常数据组），以防止新风机链接不被中断。这个间隔可以较长2-10秒钟。上位机在收到新风机发来的数据包后延时n毫秒发送心跳报。如果有用户操作需要下发正常数据组，心跳报可以停一个周期。新风机5个周期没有收到心跳报，就会重新发起链接，以防止热点丢失链接中断。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置上报间隔 单位：秒  (0-30s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置频率 单位: Hz（只对手动有效）(0-60HZ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置模式1 自动：2 手动：3睡眠： (1-3以后可能会扩展)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置功能开关 开：1 关：2（1-2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置时间 分钟（0-59）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置时间 小时（0-23）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置时间 日（1-31）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置时间 月（1-12）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置时间 年（15-99）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置开机 分钟（0-59）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置开机小时（0-23）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置关机分钟（0-59）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置关机小时（0-23）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置自动模式静电除尘开启的户外PM2.5  （50-255）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址字节的最低位(0-255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址字节的中间位(0-255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址字节的最高位(0-255)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2046,80 +2118,12 @@
         <charset val="134"/>
       </rPr>
       <t>配置字符串样例：
-@ssid=INOVAFITNESS2,82868288;server=udp:255.255.255.255:5000服务器将字符串按照下方协议分解打包，通过网络分批发送到单片机。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要说明：无论是内网还是外网，上位机（APP或者服务器）都需要定时给新风机发送心跳报，（心跳报数据格式=正常数据组），以防止新风机链接不被中断。这个间隔可以较长2-10秒钟。上位机在收到新风机发来的数据包后延时n毫秒发送心跳报。如果有用户操作需要下发正常数据组，心跳报可以停一个周期。新风机5个周期没有收到心跳报，就会重新发起链接，以防止热点丢失链接中断。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置上报间隔 单位：秒  (0-30s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置频率 单位: Hz（只对手动有效）(0-60HZ)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置模式1 自动：2 手动：3睡眠： (1-3以后可能会扩展)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置功能开关 开：1 关：2（1-2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置时间 分钟（0-59）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置时间 小时（0-23）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置时间 日（1-31）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置时间 月（1-12）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置时间 年（15-99）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置开机 分钟（0-59）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置开机小时（0-23）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置关机分钟（0-59）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置关机小时（0-23）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置自动模式静电除尘开启的户外PM2.5  （50-255）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址字节的最低位(0-255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址字节的中间位(0-255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址字节的最高位(0-255)</t>
+@ssid=ZJXFJ,987654321;server=udp:255.255.255.255:5000服务器将字符串按照下方协议分解打包，通过网络分批发送到单片机。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前频率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2834,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2850,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="39" customFormat="1" ht="153" customHeight="1">
       <c r="A1" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -2865,7 +2869,7 @@
     <row r="4" spans="1:10" hidden="1"/>
     <row r="5" spans="1:10" ht="249.75" customHeight="1">
       <c r="B5" s="48" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -3440,12 +3444,14 @@
         <v>59</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="17"/>
+      <c r="G41" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="H41">
         <v>1</v>
       </c>
@@ -3467,7 +3473,7 @@
         <v>60</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>60</v>
@@ -3496,7 +3502,7 @@
         <v>61</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>61</v>
@@ -3525,7 +3531,7 @@
         <v>62</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>62</v>
@@ -3554,7 +3560,7 @@
         <v>63</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>63</v>
@@ -3580,7 +3586,7 @@
         <v>64</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>64</v>
@@ -3606,7 +3612,7 @@
         <v>65</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>65</v>
@@ -3632,7 +3638,7 @@
         <v>66</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>66</v>
@@ -3658,7 +3664,7 @@
         <v>67</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>67</v>
@@ -3684,7 +3690,7 @@
         <v>68</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>68</v>
@@ -3710,7 +3716,7 @@
         <v>69</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>69</v>
@@ -3736,7 +3742,7 @@
         <v>70</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>70</v>
@@ -3762,7 +3768,7 @@
         <v>71</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>71</v>
@@ -3814,7 +3820,7 @@
         <v>73</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>73</v>
@@ -3840,7 +3846,7 @@
         <v>119</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>122</v>
@@ -3866,7 +3872,7 @@
         <v>120</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>123</v>
@@ -3892,7 +3898,7 @@
         <v>121</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>124</v>
